--- a/Scripts/2-2_Excel.xlsx
+++ b/Scripts/2-2_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USSER\Desktop\UE5_Project\Scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46EA048C-3FCE-45F4-8E02-38A57127C60D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CFCE57-EFDA-42A5-94A3-6EAAA8DCAC88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,116 +51,116 @@
     <t>좌표를 따라 이동하던 중, 통로 구석에 웅크린 그림자를 발견했다.</t>
   </si>
   <si>
-    <t>...아군 식별 신호 확인. 코드네임 '베타'. 처음 보는 코드다.</t>
-  </si>
-  <si>
-    <t>슈트의 마모도와 구형 인식표에 새겨진 숫자... 수십 번의 시간여행을 견뎌낸 '베테랑'의 표식이다.</t>
-  </si>
-  <si>
-    <t>상당한 실력자였음이 분명하다. 하지만 등 뒤에서 가해진 치명상은 그조차 반응할 수 없었던 기습이었음을 말해준다.</t>
-  </si>
-  <si>
     <t>다행히 기록 장치는 멀쩡하군.</t>
   </si>
   <si>
     <t>시스템 음성</t>
   </si>
   <si>
-    <t>데이터 복구 완료. 요원 '베타'의 로그를 재생합니다.</t>
-  </si>
-  <si>
     <t>기록에서 흘러나오는 목소리는 베테랑답게 여유롭고 차분했다.</t>
   </si>
   <si>
     <t>요원 베타</t>
   </si>
   <si>
-    <t>...파견 10일 차. 현지인들과의 접촉을 시도했다. 대상은 '염윤'이라는 무사와 그를 돕는 무녀.</t>
-  </si>
-  <si>
-    <t>본부의 매뉴얼에서는 현지인과 깊게 엮이지 말라고 경고하지만... 나는 그 지침을 좋아하지 않는다.</t>
-  </si>
-  <si>
-    <t>글쎄, 난 늘 이래왔다. 꽉 막힌 데이터보다는 사람과 부대끼며 신뢰를 쌓는 게, 경험상 훨씬 효율이 좋았거든. 일종의 베테랑의 감이랄까.</t>
-  </si>
-  <si>
-    <t>이번에도 내 방식을 따르겠다. 서두르지 않고 그들의 곁에 머물며, 닫힌 마음을 여는 것부터 시작하려 한다.</t>
-  </si>
-  <si>
     <t>다음 로그를 재생합니다.</t>
   </si>
   <si>
     <t>이어지는 기록에서는 이전보다 한층 부드러워진, 묘한 확신에 찬 목소리가 흘러나왔다.</t>
   </si>
   <si>
-    <t>...파견 25일 차. 나의 진심이 통했는지, 염윤이 자신의 과거를 털어놓았다.</t>
-  </si>
-  <si>
-    <t>전쟁의 업보로 악령을 봉인하고 속죄하는 삶... 괴로워하면서도 타인을 위해 희생하는 그 모습에서, 나는 묘한 동질감을 느꼈다.</t>
-  </si>
-  <si>
-    <t>마치, 보이지 않는 곳에서 인류를 수호하는 우리 요원들의 숙명과 닮아있지 않은가.</t>
-  </si>
-  <si>
-    <t>그라면... 그래, 그라면 나의 이 무거운 사명감도 이해해 줄 것이다. 나는 그를 믿고 내 정체와 임무에 대해 이야기했다.</t>
-  </si>
-  <si>
-    <t>감정에 치우쳐 기밀을 공유했군. 베테랑이라도 인간적인 고독은 어쩔 수 없었던 건가.</t>
-  </si>
-  <si>
     <t>마지막 로그를 재생합니다.</t>
   </si>
   <si>
-    <t>마지막 기록에 담긴 베타의 목소리에는 평소와 다르게 거친 숨소리와 피가 끓는 소리가 가득했다.</t>
-  </si>
-  <si>
     <t>...크윽... 내 판단이... 틀렸어.</t>
   </si>
   <si>
-    <t>염윤이... 폭주했다. 하지만 이건 자연적인 현상이 아니야. 누군가 외부에서 그의 악령을 자극했다.</t>
-  </si>
-  <si>
-    <t>그 타이밍에... 내 등 뒤에 있었던 건 단 한 사람. 무녀, 당신뿐이었다.</t>
-  </si>
-  <si>
-    <t>내 진심을 듣고도... 우리가 염윤에게 위협이 된다고 판단한 건가? 아니면, 애초에 인간 자체를 증오했던 건가...</t>
-  </si>
-  <si>
     <t>목소리는 점점 힘을 잃어가며, 가늘게 떨리고 있었다.</t>
   </si>
   <si>
-    <t>당신의 그 차가운 눈빛... 그게 답이었군. 사람을 믿으려 했던 내 방식이... 결국 최악의 독이 되고 말았어...</t>
-  </si>
-  <si>
     <t>재생이 종료되었습니다.</t>
   </si>
   <si>
-    <t>...베타의 기록이 사실이라면, 염윤은 폭주한 것이 아니라 폭주 '당한' 것이 된다.</t>
-  </si>
-  <si>
-    <t>그리고 현장에서 그럴 능력을 가진 자는, 베타가 지목한 그 무녀가 가장 유력하겠군.</t>
-  </si>
-  <si>
     <t>그렇다면 그녀야말로 내가 찾던 영적인 힘을 다루는 '진짜' 목표일 가능성이 높다.</t>
   </si>
   <si>
-    <t>동료의 신뢰를 이용해 죽음으로 몰아넣었다... 확인해 볼 필요가 있겠어.</t>
-  </si>
-  <si>
     <t>지금은 물자 부족으로 복귀하지만, 이 좌표는 기억해둬야 한다.</t>
   </si>
   <si>
-    <t>...언젠가 다시 오게 될 것이다. 그때는 그녀에게 직접 물어봐야겠지. 베타의 방식이 정말 틀렸던 것인지.</t>
-  </si>
-  <si>
     <t>나는 베타의 인식표를 챙겨, 씁쓸한 뒷맛을 삼키며 포탈로 몸을 던졌다.</t>
+  </si>
+  <si>
+    <t>그녀의 그 차가운 눈빛... \n이젠 물어볼 수도 없겠군.. 어떻게 해야 했을까…</t>
+  </si>
+  <si>
+    <t>...아군 식별 신호 확인. 코드네임 '베타'.\n처음 보는 코드다.</t>
+  </si>
+  <si>
+    <t>슈트의 마모도와 구형 인식표에 새겨진 숫자…\n수십 번의 시간여행을 견뎌낸 '베테랑'의 표식이다.</t>
+  </si>
+  <si>
+    <t>상당한 실력자였음이 분명하다.\n하지만 등 뒤에서 가해진 치명상은\n그조차 반응할 수 없었던 기습이었음을 말해준다.</t>
+  </si>
+  <si>
+    <t>데이터 복구 완료.\n요원 '베타'의 로그를 재생합니다.</t>
+  </si>
+  <si>
+    <t>...파견 10일 차.\n현지인들과의 접촉을 시도했다. 대상은 '염윤'이라는 무사와 그를 돕는 무녀다.</t>
+  </si>
+  <si>
+    <t>본부의 매뉴얼에서는 현지인과 깊게 엮이지 말라고 경고하지만…\n나는 그 지침을 좋아하지 않는다.</t>
+  </si>
+  <si>
+    <t>언제부터일까, 난 늘 이래왔다.\n꽉 막힌 데이터보다는 사람과 부대끼며 신뢰를 쌓는 게,\n경험상 훨씬 효율이 좋았거든. 일종의 베테랑의 감이랄까.</t>
+  </si>
+  <si>
+    <t>이번에도 내 방식을 따르겠다.\n서두르지 않고 그들의 곁에 머물며,\n닫힌 마음을 여는 것부터 시작하려 한다.</t>
+  </si>
+  <si>
+    <t>...파견 25일 차.\n나의 진심이 통했는지, 염윤이 자신의 과거를 털어놓았다.</t>
+  </si>
+  <si>
+    <t>전쟁의 업보로 악령을 봉인하고 속죄하는 삶…\n괴로워하면서도 타인을 위해 희생하는 그 모습에서, 나는 묘한 동질감을 느꼈다.</t>
+  </si>
+  <si>
+    <t>마치, 보이지 않는 곳에서 인류를 수호하는\n우리 요원들의 숙명과 닮아있지 않은가.</t>
+  </si>
+  <si>
+    <t>그라면... 그래, 그라면 나의 이 무거운 사명감도 이해해 줄 것이다.\n나는 그를 믿고 내 정체와 임무에 대해 이야기했다.</t>
+  </si>
+  <si>
+    <t>감정에 치우쳐 기밀을 공유했군.\n베테랑이라도 인간적인 고독은 어쩔 수 없었던 건가.</t>
+  </si>
+  <si>
+    <t>마지막 기록에 담긴 베타의 목소리에는\n평소와 다르게 거친 숨소리와 피가 끓는 소리가 가득했다.</t>
+  </si>
+  <si>
+    <t>염윤이... 폭주했다. 하지만 이건 자연적인 현상이 아니야.\n누군가 외부에서 그의 악령을 자극했다.</t>
+  </si>
+  <si>
+    <t>그 타이밍에... 내 등 뒤에 있었던 건 단 한 사람.\n무녀, 그녀뿐이었다.</t>
+  </si>
+  <si>
+    <t>내 진심을 듣고도... 우리가 염윤에게 위협이 된다고 판단한 건가?\n아니면, 애초에 인간 자체를 증오했던 건가...</t>
+  </si>
+  <si>
+    <t>...베타의 기록이 사실이라면,\n염윤은 폭주한 것이 아니라 폭주 '당한' 것이 된다.</t>
+  </si>
+  <si>
+    <t>그리고 현장에서 그럴 능력을 가진 자는,\n베타가 지목한 그 무녀가 가장 유력하겠군.</t>
+  </si>
+  <si>
+    <t>사람의 신뢰를 이용해 죽음으로 몰아넣었다…\n확인해 볼 필요가 있겠어.</t>
+  </si>
+  <si>
+    <t>...언젠가 다시 오게 될 것이다. 그때는 그녀에게 대신 물어봐야겠지.\n베타의 방식이 정말 틀렸던 것인지.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,27 +182,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -237,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -245,26 +229,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,7 +515,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -584,8 +550,7 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1">
@@ -602,11 +567,11 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -622,11 +587,11 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>9</v>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
@@ -642,9 +607,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
@@ -660,11 +624,11 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
@@ -680,11 +644,11 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>13</v>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -700,9 +664,8 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5" t="s">
-        <v>14</v>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
@@ -718,11 +681,11 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>16</v>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="1">
         <v>7</v>
@@ -738,11 +701,11 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>17</v>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -758,11 +721,11 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D11" s="1">
         <v>9</v>
@@ -778,11 +741,11 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D12" s="1">
         <v>10</v>
@@ -798,11 +761,11 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>11</v>
@@ -818,9 +781,8 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="5" t="s">
-        <v>21</v>
+      <c r="C14" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D14" s="1">
         <v>12</v>
@@ -836,11 +798,11 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>22</v>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>13</v>
@@ -856,11 +818,11 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>23</v>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="1">
         <v>14</v>
@@ -876,11 +838,11 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>24</v>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="1">
         <v>15</v>
@@ -896,11 +858,11 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>25</v>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="1">
         <v>16</v>
@@ -916,11 +878,11 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>26</v>
+      <c r="B19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="1">
         <v>17</v>
@@ -936,11 +898,11 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>27</v>
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="1">
         <v>18</v>
@@ -956,9 +918,8 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="5" t="s">
-        <v>28</v>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D21" s="1">
         <v>19</v>
@@ -974,11 +935,11 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="D22" s="1">
         <v>20</v>
@@ -994,11 +955,11 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>30</v>
+      <c r="B23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="1">
         <v>21</v>
@@ -1014,11 +975,11 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>31</v>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D24" s="1">
         <v>22</v>
@@ -1034,11 +995,11 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>32</v>
+      <c r="B25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D25" s="1">
         <v>23</v>
@@ -1054,9 +1015,8 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5" t="s">
-        <v>33</v>
+      <c r="C26" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D26" s="1">
         <v>24</v>
@@ -1072,11 +1032,11 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>34</v>
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D27" s="1">
         <v>25</v>
@@ -1092,11 +1052,11 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>35</v>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="1">
         <v>26</v>
@@ -1112,11 +1072,11 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>36</v>
+      <c r="B29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D29" s="1">
         <v>27</v>
@@ -1132,11 +1092,11 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>37</v>
+      <c r="B30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="1">
         <v>28</v>
@@ -1152,9 +1112,8 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="5" t="s">
-        <v>38</v>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="D31" s="1">
         <v>29</v>
@@ -1170,11 +1129,11 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>39</v>
+      <c r="B32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D32" s="1">
         <v>30</v>
@@ -1190,9 +1149,8 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="5" t="s">
-        <v>40</v>
+      <c r="C33" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="D33" s="1">
         <v>31</v>
@@ -1208,11 +1166,11 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>41</v>
+      <c r="B34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="1">
         <v>32</v>
@@ -1228,9 +1186,8 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="5" t="s">
-        <v>42</v>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="D35" s="1">
         <v>33</v>
